--- a/Excel/Localization/LocalizationAsset.xlsx
+++ b/Excel/Localization/LocalizationAsset.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\SJProject\Excel\Localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\Excel\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E95BE3-290D-4F1F-A241-373EC14BA51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CN" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>#</t>
   </si>
@@ -59,30 +60,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">本地化资源表 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>默认文本 对应语言获取不到时读取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文</t>
+    <t>默认资源路径 对应语言获取不到时读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,18 +420,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="28.625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
   </cols>
@@ -464,13 +461,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
@@ -479,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -498,10 +495,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>4</v>
